--- a/data/trans_orig/IP07C31_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C31_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{28EDFEFC-270C-4D42-8845-2464DAA12E61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C5D8459-49FE-4242-8846-A99F4DAA66AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2C0C8793-4E31-4ECD-BF81-096055A226EF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F239997-54CC-48D0-997E-4805762A6015}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>52,31%</t>
+    <t>56,84%</t>
   </si>
   <si>
     <t>0%</t>
@@ -89,7 +89,7 @@
     <t>9,77%</t>
   </si>
   <si>
-    <t>35,28%</t>
+    <t>33,22%</t>
   </si>
   <si>
     <t>No</t>
@@ -98,7 +98,7 @@
     <t>82,64%</t>
   </si>
   <si>
-    <t>47,69%</t>
+    <t>43,16%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -113,7 +113,7 @@
     <t>90,23%</t>
   </si>
   <si>
-    <t>64,72%</t>
+    <t>66,78%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -122,55 +122,55 @@
     <t>10,61%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>12,88%</t>
   </si>
   <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
   </si>
   <si>
     <t>11,59%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
   </si>
   <si>
     <t>89,39%</t>
   </si>
   <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
   </si>
   <si>
     <t>87,12%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>88,41%</t>
   </si>
   <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>85,21%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -179,109 +179,109 @@
     <t>10,66%</t>
   </si>
   <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
   </si>
   <si>
     <t>10,15%</t>
   </si>
   <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
   </si>
   <si>
     <t>89,34%</t>
   </si>
   <si>
-    <t>78,69%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
   </si>
   <si>
     <t>90,47%</t>
   </si>
   <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
   </si>
   <si>
     <t>89,85%</t>
   </si>
   <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
   </si>
   <si>
     <t>11,2%</t>
   </si>
   <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
   </si>
   <si>
     <t>88,95%</t>
   </si>
   <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
   </si>
   <si>
     <t>88,8%</t>
   </si>
   <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -696,7 +696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C26C6EE6-5CD5-4A54-AED5-71A7DB141DE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18C550D-2703-4257-A75C-AEE96330BF21}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP07C31_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C31_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C5D8459-49FE-4242-8846-A99F4DAA66AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{28F0FF25-A96F-44C2-A86A-B4FC22EAA69D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1F239997-54CC-48D0-997E-4805762A6015}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{4501638C-DDD4-41E1-88DB-FDDDB9BD7ADE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="83">
-  <si>
-    <t>Menores según frecuencia de situaciones de cyberbulling fuera de tu colegio en 2023 (Tasa respuesta: 27,92%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="177">
+  <si>
+    <t>Menores según si se han producido situaciones de cyberbulling fuera de su colegio en 2023 (Tasa respuesta: 30,05%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,220 +68,502 @@
     <t>Primarios</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>17,36%</t>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>13,22%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>56,84%</t>
+    <t>49,87%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>11,83%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>Un Poco</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>56,95%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>75,15%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>61,41%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>9,77%</t>
   </si>
   <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>82,64%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
-  </si>
-  <si>
-    <t>85,21%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>85,62%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>81,2%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>50,48%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>59,64%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -696,8 +978,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18C550D-2703-4257-A75C-AEE96330BF21}">
-  <dimension ref="A1:Q16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{499637DE-FB36-45CB-A62B-B1AD61A6ABDF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -814,10 +1096,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="7">
-        <v>2724</v>
+        <v>1640</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -844,10 +1126,10 @@
         <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>2724</v>
+        <v>1640</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -865,204 +1147,202 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>12965</v>
+        <v>717</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" s="7">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>12201</v>
+        <v>863</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>21</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>2</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1579</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="M5" s="7">
-        <v>32</v>
-      </c>
-      <c r="N5" s="7">
-        <v>25166</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="7">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1120</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="7">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1688</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="7">
+        <v>4</v>
+      </c>
+      <c r="N6" s="7">
+        <v>2808</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
-        <v>19</v>
-      </c>
-      <c r="D6" s="7">
-        <v>15689</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="7">
-        <v>15</v>
-      </c>
-      <c r="I6" s="7">
-        <v>12201</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="7">
+      <c r="D7" s="7">
+        <v>1865</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="7">
-        <v>27890</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="7">
-        <v>25</v>
-      </c>
-      <c r="D7" s="7">
-        <v>19589</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I7" s="7">
-        <v>18104</v>
+        <v>3894</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="N7" s="7">
-        <v>37692</v>
+        <v>5759</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C8" s="7">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>165077</v>
+        <v>7066</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="H8" s="7">
-        <v>156</v>
+        <v>13</v>
       </c>
       <c r="I8" s="7">
-        <v>122397</v>
+        <v>10309</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>336</v>
+        <v>24</v>
       </c>
       <c r="N8" s="7">
-        <v>287475</v>
+        <v>17376</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1071,102 +1351,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>205</v>
+        <v>18</v>
       </c>
       <c r="D9" s="7">
-        <v>184666</v>
+        <v>12407</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="I9" s="7">
-        <v>140501</v>
+        <v>16754</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="M9" s="7">
-        <v>388</v>
+        <v>39</v>
       </c>
       <c r="N9" s="7">
-        <v>325167</v>
+        <v>29162</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="7">
-        <v>4880</v>
+        <v>2934</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
       </c>
       <c r="I10" s="7">
-        <v>3603</v>
+        <v>3833</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="M10" s="7">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N10" s="7">
-        <v>8484</v>
+        <v>6767</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1175,204 +1455,202 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D11" s="7">
-        <v>40911</v>
+        <v>4129</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H11" s="7">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="I11" s="7">
-        <v>34223</v>
+        <v>3195</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="M11" s="7">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="N11" s="7">
-        <v>75133</v>
+        <v>7324</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C12" s="7">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="D12" s="7">
-        <v>45791</v>
+        <v>2564</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="I12" s="7">
-        <v>37826</v>
+        <v>601</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>83617</v>
+        <v>3164</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7">
-        <v>27193</v>
+        <v>46009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H13" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>21707</v>
+        <v>29336</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="M13" s="7">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N13" s="7">
-        <v>48900</v>
+        <v>75345</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>43</v>
       </c>
       <c r="C14" s="7">
-        <v>252</v>
+        <v>152</v>
       </c>
       <c r="D14" s="7">
-        <v>218954</v>
+        <v>103678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
-        <v>219</v>
+        <v>176</v>
       </c>
       <c r="I14" s="7">
-        <v>168820</v>
+        <v>165735</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="N14" s="7">
-        <v>387774</v>
+        <v>269413</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1381,66 +1659,682 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>285</v>
+        <v>195</v>
       </c>
       <c r="D15" s="7">
-        <v>246147</v>
+        <v>159313</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H15" s="7">
+        <v>217</v>
+      </c>
+      <c r="I15" s="7">
+        <v>202700</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="7">
+        <v>412</v>
+      </c>
+      <c r="N15" s="7">
+        <v>362013</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1</v>
+      </c>
+      <c r="D16" s="7">
+        <v>821</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="7">
+        <v>1</v>
+      </c>
+      <c r="I16" s="7">
+        <v>543</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M16" s="7">
+        <v>2</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1364</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1</v>
+      </c>
+      <c r="D17" s="7">
+        <v>806</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3143</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="M17" s="7">
+        <v>4</v>
+      </c>
+      <c r="N17" s="7">
+        <v>3949</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="7">
+        <v>2</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1892</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1504</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="7">
+        <v>4</v>
+      </c>
+      <c r="N18" s="7">
+        <v>3397</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="7">
+        <v>7</v>
+      </c>
+      <c r="D19" s="7">
+        <v>4231</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H19" s="7">
+        <v>13</v>
+      </c>
+      <c r="I19" s="7">
+        <v>10362</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="M19" s="7">
+        <v>20</v>
+      </c>
+      <c r="N19" s="7">
+        <v>14593</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="7">
+        <v>46</v>
+      </c>
+      <c r="D20" s="7">
+        <v>31002</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="7">
+        <v>50</v>
+      </c>
+      <c r="I20" s="7">
+        <v>37141</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M20" s="7">
+        <v>96</v>
+      </c>
+      <c r="N20" s="7">
+        <v>68143</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="7">
+        <v>57</v>
+      </c>
+      <c r="D21" s="7">
+        <v>38752</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="7">
+        <v>69</v>
+      </c>
+      <c r="I21" s="7">
+        <v>52693</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M21" s="7">
+        <v>126</v>
+      </c>
+      <c r="N21" s="7">
+        <v>91445</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>7</v>
+      </c>
+      <c r="D22" s="7">
+        <v>5394</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="7">
+        <v>6</v>
+      </c>
+      <c r="I22" s="7">
+        <v>4376</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" s="7">
+        <v>13</v>
+      </c>
+      <c r="N22" s="7">
+        <v>9770</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7">
+        <v>8</v>
+      </c>
+      <c r="D23" s="7">
+        <v>5652</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="H23" s="7">
+        <v>8</v>
+      </c>
+      <c r="I23" s="7">
+        <v>7200</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M23" s="7">
+        <v>16</v>
+      </c>
+      <c r="N23" s="7">
+        <v>12852</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="7">
+        <v>8</v>
+      </c>
+      <c r="D24" s="7">
+        <v>5576</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H15" s="7">
-        <v>251</v>
-      </c>
-      <c r="I15" s="7">
-        <v>190527</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" s="7">
-        <v>536</v>
-      </c>
-      <c r="N15" s="7">
-        <v>436674</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>82</v>
+      <c r="H24" s="7">
+        <v>5</v>
+      </c>
+      <c r="I24" s="7">
+        <v>3793</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="M24" s="7">
+        <v>13</v>
+      </c>
+      <c r="N24" s="7">
+        <v>9369</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="7">
+        <v>38</v>
+      </c>
+      <c r="D25" s="7">
+        <v>52104</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H25" s="7">
+        <v>49</v>
+      </c>
+      <c r="I25" s="7">
+        <v>43592</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="7">
+        <v>87</v>
+      </c>
+      <c r="N25" s="7">
+        <v>95697</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="7">
+        <v>209</v>
+      </c>
+      <c r="D26" s="7">
+        <v>141745</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="H26" s="7">
+        <v>239</v>
+      </c>
+      <c r="I26" s="7">
+        <v>213186</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="M26" s="7">
+        <v>448</v>
+      </c>
+      <c r="N26" s="7">
+        <v>354931</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>270</v>
+      </c>
+      <c r="D27" s="7">
+        <v>210472</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="7">
+        <v>307</v>
+      </c>
+      <c r="I27" s="7">
+        <v>272147</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M27" s="7">
+        <v>577</v>
+      </c>
+      <c r="N27" s="7">
+        <v>482619</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A10:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
